--- a/encryption/Node/decodingnode_tanpaparity.xlsx
+++ b/encryption/Node/decodingnode_tanpaparity.xlsx
@@ -2075,7 +2075,7 @@
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332">
@@ -2085,7 +2085,7 @@
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334">
@@ -2095,7 +2095,7 @@
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336">
@@ -2105,7 +2105,7 @@
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338">
@@ -2115,7 +2115,7 @@
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340">
@@ -2125,7 +2125,7 @@
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342">
@@ -2135,7 +2135,7 @@
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344">
@@ -2145,7 +2145,7 @@
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346">
@@ -2155,7 +2155,7 @@
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348">
@@ -2165,7 +2165,7 @@
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350">
@@ -2175,7 +2175,7 @@
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352">
@@ -2185,7 +2185,7 @@
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354">
@@ -2195,7 +2195,7 @@
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356">
@@ -2205,7 +2205,7 @@
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358">
@@ -2215,7 +2215,7 @@
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360">
@@ -2225,7 +2225,7 @@
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362">
@@ -2235,7 +2235,7 @@
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364">
@@ -2245,7 +2245,7 @@
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366">
@@ -2255,7 +2255,7 @@
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368">
@@ -2265,7 +2265,7 @@
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370">
@@ -2275,7 +2275,7 @@
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372">
@@ -2285,7 +2285,7 @@
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374">
@@ -2295,7 +2295,7 @@
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376">
@@ -2305,7 +2305,7 @@
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
@@ -2315,7 +2315,7 @@
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380">
@@ -2325,7 +2325,7 @@
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382">
@@ -2335,7 +2335,7 @@
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384">
@@ -2345,7 +2345,7 @@
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386">
@@ -2355,7 +2355,7 @@
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388">
@@ -2365,7 +2365,7 @@
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390">
@@ -2375,7 +2375,7 @@
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392">
@@ -2385,7 +2385,7 @@
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394">
@@ -2395,7 +2395,7 @@
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396">
@@ -2405,7 +2405,7 @@
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398">
@@ -2415,7 +2415,7 @@
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400">
@@ -2425,7 +2425,7 @@
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402">
@@ -2435,7 +2435,7 @@
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404">
@@ -2445,7 +2445,7 @@
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406">
@@ -2455,7 +2455,7 @@
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408">
@@ -2465,7 +2465,7 @@
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410">
@@ -2475,7 +2475,7 @@
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412">
@@ -2485,7 +2485,7 @@
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414">
@@ -2495,7 +2495,7 @@
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416">
@@ -2505,7 +2505,7 @@
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418">
@@ -2515,7 +2515,7 @@
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420">
@@ -2525,7 +2525,7 @@
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422">
@@ -2535,7 +2535,7 @@
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424">
@@ -2545,7 +2545,7 @@
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426">
@@ -2555,7 +2555,7 @@
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428">
@@ -2565,7 +2565,7 @@
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430">
@@ -2575,7 +2575,7 @@
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432">
@@ -2585,7 +2585,7 @@
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434">
@@ -2595,7 +2595,7 @@
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436">
@@ -2605,7 +2605,7 @@
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438">
@@ -2615,7 +2615,7 @@
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440">
@@ -2625,7 +2625,7 @@
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442">
@@ -2635,7 +2635,7 @@
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444">
@@ -2645,7 +2645,7 @@
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446">
@@ -3125,7 +3125,7 @@
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542">
@@ -3135,7 +3135,7 @@
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544">
@@ -3145,7 +3145,7 @@
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546">
@@ -3155,7 +3155,7 @@
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548">
@@ -3165,7 +3165,7 @@
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550">
@@ -3175,7 +3175,7 @@
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552">
@@ -3185,7 +3185,7 @@
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554">
@@ -3195,7 +3195,7 @@
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556">
@@ -3205,7 +3205,7 @@
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558">
@@ -3215,7 +3215,7 @@
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560">
@@ -3225,7 +3225,7 @@
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562">
@@ -3235,7 +3235,7 @@
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564">
@@ -3245,7 +3245,7 @@
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566">
@@ -3255,7 +3255,7 @@
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568">
@@ -3265,7 +3265,7 @@
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570">
@@ -3275,7 +3275,7 @@
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572">
@@ -3285,7 +3285,7 @@
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574">
@@ -3295,7 +3295,7 @@
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576">
@@ -3305,7 +3305,7 @@
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578">
@@ -3315,7 +3315,7 @@
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580">
@@ -3325,7 +3325,7 @@
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582">
@@ -3335,7 +3335,7 @@
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584">
@@ -3345,7 +3345,7 @@
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586">
@@ -3355,7 +3355,7 @@
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588">
@@ -3365,7 +3365,7 @@
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590">
@@ -3375,7 +3375,7 @@
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592">
@@ -3385,7 +3385,7 @@
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594">
@@ -3395,7 +3395,7 @@
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596">
@@ -3405,7 +3405,7 @@
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598">
@@ -3415,7 +3415,7 @@
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600">
@@ -3425,7 +3425,7 @@
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602">
@@ -3435,7 +3435,7 @@
     </row>
     <row r="603">
       <c r="A603" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604">
@@ -3445,7 +3445,7 @@
     </row>
     <row r="605">
       <c r="A605" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606">
@@ -3455,7 +3455,7 @@
     </row>
     <row r="607">
       <c r="A607" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608">
@@ -3465,7 +3465,7 @@
     </row>
     <row r="609">
       <c r="A609" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610">
@@ -3475,7 +3475,7 @@
     </row>
     <row r="611">
       <c r="A611" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612">
@@ -3485,7 +3485,7 @@
     </row>
     <row r="613">
       <c r="A613" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614">
@@ -3495,7 +3495,7 @@
     </row>
     <row r="615">
       <c r="A615" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616">
@@ -3505,7 +3505,7 @@
     </row>
     <row r="617">
       <c r="A617" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618">
@@ -3515,7 +3515,7 @@
     </row>
     <row r="619">
       <c r="A619" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620">
@@ -3525,7 +3525,7 @@
     </row>
     <row r="621">
       <c r="A621" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622">
@@ -3535,7 +3535,7 @@
     </row>
     <row r="623">
       <c r="A623" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624">
@@ -3545,7 +3545,7 @@
     </row>
     <row r="625">
       <c r="A625" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626">
@@ -3555,7 +3555,7 @@
     </row>
     <row r="627">
       <c r="A627" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628">
@@ -3565,7 +3565,7 @@
     </row>
     <row r="629">
       <c r="A629" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630">
@@ -3575,7 +3575,7 @@
     </row>
     <row r="631">
       <c r="A631" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632">
@@ -3585,7 +3585,7 @@
     </row>
     <row r="633">
       <c r="A633" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634">
@@ -3595,7 +3595,7 @@
     </row>
     <row r="635">
       <c r="A635" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636">
@@ -3605,7 +3605,7 @@
     </row>
     <row r="637">
       <c r="A637" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638">
@@ -3615,7 +3615,7 @@
     </row>
     <row r="639">
       <c r="A639" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640">
@@ -3625,7 +3625,7 @@
     </row>
     <row r="641">
       <c r="A641" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642">
@@ -3635,7 +3635,7 @@
     </row>
     <row r="643">
       <c r="A643" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644">
@@ -3645,7 +3645,7 @@
     </row>
     <row r="645">
       <c r="A645" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646">
@@ -3655,7 +3655,7 @@
     </row>
     <row r="647">
       <c r="A647" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648">
@@ -3665,7 +3665,7 @@
     </row>
     <row r="649">
       <c r="A649" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650">
@@ -3675,7 +3675,7 @@
     </row>
     <row r="651">
       <c r="A651" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652">
@@ -3685,7 +3685,7 @@
     </row>
     <row r="653">
       <c r="A653" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654">
@@ -3695,7 +3695,7 @@
     </row>
     <row r="655">
       <c r="A655" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656">
@@ -3705,7 +3705,7 @@
     </row>
     <row r="657">
       <c r="A657" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658">
@@ -3715,7 +3715,7 @@
     </row>
     <row r="659">
       <c r="A659" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660">
@@ -3725,7 +3725,7 @@
     </row>
     <row r="661">
       <c r="A661" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662">
@@ -3735,7 +3735,7 @@
     </row>
     <row r="663">
       <c r="A663" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664">
@@ -3745,7 +3745,7 @@
     </row>
     <row r="665">
       <c r="A665" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666">
@@ -3755,7 +3755,7 @@
     </row>
     <row r="667">
       <c r="A667" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668">
@@ -3765,7 +3765,7 @@
     </row>
     <row r="669">
       <c r="A669" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670">
@@ -3775,7 +3775,7 @@
     </row>
     <row r="671">
       <c r="A671" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672">
@@ -3785,7 +3785,7 @@
     </row>
     <row r="673">
       <c r="A673" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674">
@@ -3795,7 +3795,7 @@
     </row>
     <row r="675">
       <c r="A675" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676">
@@ -3805,7 +3805,7 @@
     </row>
     <row r="677">
       <c r="A677" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678">
@@ -3815,7 +3815,7 @@
     </row>
     <row r="679">
       <c r="A679" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680">
@@ -3825,7 +3825,7 @@
     </row>
     <row r="681">
       <c r="A681" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682">
@@ -3835,7 +3835,7 @@
     </row>
     <row r="683">
       <c r="A683" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684">
@@ -3845,7 +3845,7 @@
     </row>
     <row r="685">
       <c r="A685" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686">
@@ -3855,7 +3855,7 @@
     </row>
     <row r="687">
       <c r="A687" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="688">
@@ -3865,7 +3865,7 @@
     </row>
     <row r="689">
       <c r="A689" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690">
@@ -3875,7 +3875,7 @@
     </row>
     <row r="691">
       <c r="A691" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692">
@@ -3885,7 +3885,7 @@
     </row>
     <row r="693">
       <c r="A693" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694">
@@ -3895,7 +3895,7 @@
     </row>
     <row r="695">
       <c r="A695" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696">
@@ -3905,7 +3905,7 @@
     </row>
     <row r="697">
       <c r="A697" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="698">
@@ -3915,7 +3915,7 @@
     </row>
     <row r="699">
       <c r="A699" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700">
@@ -3925,7 +3925,7 @@
     </row>
     <row r="701">
       <c r="A701" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702">
@@ -3935,7 +3935,7 @@
     </row>
     <row r="703">
       <c r="A703" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704">
@@ -3945,7 +3945,7 @@
     </row>
     <row r="705">
       <c r="A705" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706">
